--- a/실험_결과.xlsx
+++ b/실험_결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erados/Desktop/erados/2022_Tracking_Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53172B-D818-AB41-93C3-FF3F634460E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7F994-4CF7-5246-A0B7-91BCE4710E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{6EDD4884-9CDA-0D4B-AEE7-5E915A4419B8}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19940" activeTab="2" xr2:uid="{6EDD4884-9CDA-0D4B-AEE7-5E915A4419B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -133,6 +133,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>onnected nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -171,6 +212,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>30</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -185,10 +229,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$AB$1</c:f>
+              <c:f>Sheet3!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -266,9 +310,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,6 +414,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>25</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -387,10 +431,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$AB$1</c:f>
+              <c:f>Sheet3!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -468,9 +512,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,6 +601,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>20</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -574,10 +618,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$AB$1</c:f>
+              <c:f>Sheet3!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -655,9 +699,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,6 +773,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>15</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -746,10 +790,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$AB$1</c:f>
+              <c:f>Sheet3!$B$1:$AA$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -827,9 +871,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,6 +930,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -901,6 +945,93 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet3!$B$6:$H$6</c:f>
@@ -957,6 +1088,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Connected</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Nodes (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1022,6 +1213,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2899,15 +3166,12 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1">
         <v>4</v>
       </c>
